--- a/data/trans_dic/P25A$preocupacion-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 13,55</t>
+          <t>4,42; 13,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,22</t>
+          <t>5,2; 14,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,87</t>
+          <t>1,73; 10,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,7</t>
+          <t>0,0; 19,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 16,98</t>
+          <t>1,5; 15,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 14,22</t>
+          <t>1,59; 13,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,45</t>
+          <t>3,95; 12,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,5</t>
+          <t>5,16; 12,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,01</t>
+          <t>2,27; 9,42</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,38</t>
+          <t>3,62; 10,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 13,35</t>
+          <t>5,45; 13,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,26; 23,03</t>
+          <t>11,21; 23,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 21,63</t>
+          <t>5,3; 20,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,97</t>
+          <t>1,05; 9,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 20,75</t>
+          <t>6,45; 19,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 11,99</t>
+          <t>4,96; 12,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 10,59</t>
+          <t>4,56; 10,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,09</t>
+          <t>11,31; 19,99</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 16,07</t>
+          <t>5,84; 16,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 9,28</t>
+          <t>2,32; 9,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 17,01</t>
+          <t>6,02; 17,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 23,6</t>
+          <t>3,81; 25,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 16,44</t>
+          <t>4,07; 16,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 16,02</t>
+          <t>2,47; 15,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 16,03</t>
+          <t>6,3; 15,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,04</t>
+          <t>3,63; 10,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 15,09</t>
+          <t>6,06; 14,7</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,34</t>
+          <t>3,52; 10,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 11,62</t>
+          <t>4,56; 11,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 18,22</t>
+          <t>7,75; 18,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 12,41</t>
+          <t>2,24; 12,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 20,48</t>
+          <t>7,09; 20,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,86</t>
+          <t>3,44; 13,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,45</t>
+          <t>3,81; 9,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,09</t>
+          <t>6,41; 13,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 14,3</t>
+          <t>7,25; 14,56</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,12</t>
+          <t>5,79; 9,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,88</t>
+          <t>6,0; 9,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,82</t>
+          <t>9,35; 14,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,7</t>
+          <t>5,27; 12,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,74</t>
+          <t>5,53; 11,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,82</t>
+          <t>5,52; 11,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,75</t>
+          <t>6,07; 9,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,65</t>
+          <t>6,36; 9,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,71</t>
+          <t>8,84; 12,86</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la preocupación por sus efectos nocivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10596</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17266</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5727</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2313</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12909</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22220</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8539</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5720; 17985</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9801; 26665</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2050; 12956</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7917</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1082; 11409</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>854; 7290</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6751; 20626</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13444; 33086</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3902; 16203</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12153</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21730</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29901</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8818</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3250</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10337</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20971</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24980</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40238</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6763; 20282</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13544; 33847</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19872; 41832</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4078; 15638</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1035; 9299</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5567; 17135</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13092; 32857</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15813; 37382</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29810; 52686</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13730</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8564</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14891</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4144</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9084</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4930</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17874</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17648</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19820</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7837; 22549</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3998; 16613</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8042; 23217</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1514; 10162</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4200; 16620</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1838; 11709</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10970; 26721</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10005; 27707</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12607; 30592</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11098</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15689</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21983</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14074</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9383</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16391</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29763</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31366</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6126; 18139</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9402; 24084</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13677; 32227</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2075; 11716</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8012; 22697</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4172; 16473</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10174; 25639</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20476; 41540</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21563; 43315</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>47577</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>72502</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>20568</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>31362</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27462</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>68145</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>94611</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>99964</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36167; 62083</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48967; 81135</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>56644; 90187</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13204; 31723</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21379; 43687</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18524; 38153</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>53133; 86402</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>76504; 117461</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>83249; 121094</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>